--- a/docs/FeatherWing_Implementation_Chart.xlsx
+++ b/docs/FeatherWing_Implementation_Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\GitHub\STEMMA_Wing_Backpack\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\GitHub\Stemma_Host_FeatherWing\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA447C3-DC6A-4AE9-AF55-A786DAC97904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089EEF3-A78E-4CA3-8657-FD0CC7C85DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5175" yWindow="720" windowWidth="21960" windowHeight="14865" xr2:uid="{C7EDD24A-D5F0-40E7-9C67-C76A930CACB0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>FeatherWing Implementation Chart</t>
   </si>
@@ -180,13 +180,31 @@
   </si>
   <si>
     <t>I/O</t>
+  </si>
+  <si>
+    <t>reset switch</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>selectable ~5v pin</t>
+  </si>
+  <si>
+    <t>logic and selectable 3v pin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +237,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,14 +413,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -413,12 +431,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,22 +438,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,6 +454,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,7 +825,7 @@
   <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,468 +837,494 @@
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="28" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="5">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="11">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="11">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="H31" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="5">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="11">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="11">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="11">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="11">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="11">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="11">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="11">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="11">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="11">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="11">
-        <v>8</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="11">
-        <v>7</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="11">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="11">
-        <v>5</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="11">
-        <v>4</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="11">
-        <v>3</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="11">
-        <v>2</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="30" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
